--- a/LevelConfig.xlsx
+++ b/LevelConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
@@ -222,10 +222,10 @@
   <dimension ref="C3:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.5"/>
@@ -504,11 +504,11 @@
   </sheetPr>
   <dimension ref="C3:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.5"/>
   </cols>
@@ -735,11 +735,15 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="G15" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="I15" s="2" t="n">
         <v>10</v>
       </c>
@@ -767,7 +771,9 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="n">
         <v>12</v>
@@ -827,11 +833,11 @@
   </sheetPr>
   <dimension ref="C3:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.5"/>
   </cols>
